--- a/clp/results/BR-Modified-NSGA2_bi/_summary/BR-Modified-NSGA2_bi_summary.xlsx
+++ b/clp/results/BR-Modified-NSGA2_bi/_summary/BR-Modified-NSGA2_bi_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,136 +641,1621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>BR0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8735309999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.883805</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.061095</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7025979999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.964151</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.69087</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.0824</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.146797</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.7726</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15.1267</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.2768</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.1317</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.7498</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8.421099999999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.6248</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.3777</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4.7273</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>22.7468</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.1951</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.4545</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.629</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>19.5455</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19.2929</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11.8453</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.034689</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.006736</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.089561</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.000745</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6843089999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>BR1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C1_respect</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.891999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.898979</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.042744</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.714166</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.948193</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.972814</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.85895</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.498138</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.0797</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.4491</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.9028</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.7043</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3613</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.2154</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.1793</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.7818</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.3263</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.681699999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.1007</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.0684</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.3236</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.842</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.3815</v>
+      </c>
+      <c r="AK3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.847239</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.859729</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.063582</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.758955</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.910541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.6841</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.2316</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.625786</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.2412</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.032</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.5407</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.0549</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5902</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.2561</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.7969</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.4293</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.1161</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5.3844</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.5336</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.9515</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.404199999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.4832</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.2365</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.6238</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.0268</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.017911</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.011142</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.008446</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.040915</v>
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.152078</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.040218</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.78722</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.003968</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7.877136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BR2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.876533</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.884969</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.036485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.778349</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9453</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.709112</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.51435</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.139471</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3054</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.6717</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.6521</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.4037</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.1136</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.483</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.7212</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.3551</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.8884</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.319100000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.5378</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.4809</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.8682</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.8033</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.0044</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.4092</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.136729</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.088972</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.141207</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.009058</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.892321</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BR3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.846683</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.858524</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.046232</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.717121</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.932984</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.977415</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.71625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.249798</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2004</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.7037</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5847</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.3068</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.3305</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.2785</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.7994</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.8258</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.731400000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.9191</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.7232</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.8849</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.0607</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.4374</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.845</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.254823</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.144996</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.28228</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.021583</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.296627</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BR4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.83335</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.845692</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.047305</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6191489999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.898926</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.261075</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.89265</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.466097</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.8074</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.6082</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.1181</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.3842</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.6658</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.0723</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.6385</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.8682</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.9289</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.9442</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.1291</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.8774</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.1674</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.258156</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.182912</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.242479</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.019711</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.517064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BR5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.821354</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8318179999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.043205</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.68315</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.908432</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.21508</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.96235</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.39549</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4417</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.553699999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4579</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.8141</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.1413</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.8704</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.8806</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.9079</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.0519</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.7582</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.8726</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4.6399</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13.7653</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.1286</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.283151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.214633</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.258038</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.056078</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.705949</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BR6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8041430000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.808895</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.038475</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.685731</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.868216</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.263476</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.90475</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.181368</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.1015</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.2728</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.1623</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.1962</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.7307</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.7065</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.6665</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.2699</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.9756</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.862</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.6248</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4.5672</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.638</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5.7011</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.323515</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.245638</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.241444</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.064725</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.720991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BR7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.793089</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.801705</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.043482</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.64374</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.864239</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.321718</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.07335</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.306802</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.2044</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.200200000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.1077</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.7176</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.6759</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.2961</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.0282</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.9405</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.116400000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.982699999999999</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.5354</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.0823</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.6239</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6.0753</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.348652</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.292786</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.210593</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.072259</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.210701</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BR8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.777816</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.783875</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.036234</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6667689999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.84706</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.155923</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.06145</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.010232</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.4013</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.3764</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8612</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.2059</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.3857</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.7983</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.8503</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.2495</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.4734</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.324299999999999</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.3074</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.5883</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.2068</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5.4403</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.349083</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.316375</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.159404</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.102845</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.786674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BR9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.758574</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.767328</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.036644</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.658707</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.813782</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.361263</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.0991</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.298225</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.4047</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.6693</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8472</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5732</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.9962</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.4945</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.0883</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.8955</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.5563</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.711499999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.500400000000001</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.3484</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.8841</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5875</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.7484</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.357312</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.325903</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.141717</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.124636</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.919925</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BR10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.748075</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7569</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.038314</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.620073</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8103630000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.45125</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.22895</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.096864</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.7082</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10.6701</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.7433999999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4677</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8993</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.3821</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.573</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.3142</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.9157</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.5158</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.1518</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.1023</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.3217</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.5306</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13.3591</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>4.471</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.344394</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.332962</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.102893</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.153609</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.620615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BR11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>six_way</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.793662</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.793662</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.793662</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.793662</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.1765</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.1765</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5.1765</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.1765</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.7041</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.7041</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.7041</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.7041</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.0486</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.0486</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.0486</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.0486</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.355584</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.355584</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.355584</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.355584</v>
       </c>
     </row>
   </sheetData>
